--- a/biology/Histoire de la zoologie et de la botanique/Julius_Milde/Julius_Milde.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Julius_Milde/Julius_Milde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl August Julius Milde, né le 2 novembre 1824 à Breslau et mort le 3 juillet 1871 à Meran, est un botaniste allemand qui s'est particulièrement intéressé aux cryptogames, fougères et mousses.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Milde étudie au fameux lycée Sainte-Marie-Madeleine de Breslau. Il s'intéresse à la botanique depuis son jeune âge. Il étudie les sciences naturelles à l'université de Breslau, en se consacrant en particulier à la botanique, ce qui lui attire les conseils paternels du professeur Heinrich Göppert qui lui demeurera lié sa vie durant. Sa thèse de 1850 connaît un tel retentissement que l'université léopoldine-carolingienne l'admet parmi les membres de son académie des sciences naturelles. À partir de 1853, il est professeur dans une Realschule de Breslau (l'école du Saint-Esprit; Zum Heiligen Geist). Il meurt à l'âge de quarante-huit ans[réf. nécessaire], alors qu'il faisait une cure à Meran.
 </t>
@@ -542,7 +556,9 @@
           <t>Quelques œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Verbreitung der schlesischen Laubmoose nach den Höhen und ihre Bedeutung für die Beurtheilung der schlesischen Flora, Jena 1861
 Die höheren Sporenpflanzen Deutschland's und der Schweiz, Leipzig 1865
